--- a/biology/Botanique/Gaga_germanotta/Gaga_germanotta.xlsx
+++ b/biology/Botanique/Gaga_germanotta/Gaga_germanotta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaga germanotta est une espèce de fougères du genre Gaga[2]. Elle est originaire du Costa Rica. Cette espèce a été découverte récemment et décrite en l'an 2012.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaga germanotta est une espèce de fougères du genre Gaga. Elle est originaire du Costa Rica. Cette espèce a été découverte récemment et décrite en l'an 2012.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée en l'honneur de la chanteuse Lady Gaga dont le vrai nom est Stephani Germanotta[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée en l'honneur de la chanteuse Lady Gaga dont le vrai nom est Stephani Germanotta.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaga germanotta mesure de 6 à 15 cm de hauteur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaga germanotta mesure de 6 à 15 cm de hauteur.
 Les frondes sont de couleur vert clair et elles se déploient à partir de crosses très serrées.
 La croissance de cette plante est lente.
 </t>
@@ -575,9 +591,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du Costa Rica et y est probablement endémique. En effet, elle a été découverte dans les Collines de la Mort[5] au sud de la capitale costaricienne San José. Elle a été repéré à 3334 mètres d'altitude.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du Costa Rica et y est probablement endémique. En effet, elle a été découverte dans les Collines de la Mort au sud de la capitale costaricienne San José. Elle a été repéré à 3334 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>État de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Gaga germanotta est décrite comme étant une plante rare mais les informations la concernant ne sont pas encore suffisantes pour pouvoir dire si elle est menacée d'extinction ou non.
 </t>
